--- a/biology/Botanique/Mizuna/Mizuna.xlsx
+++ b/biology/Botanique/Mizuna/Mizuna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le mizuna (Brassica rapa subsp. nipposinica) est une variété de Brassica rapa, espèce de plantes de la famille des brassicacées[1].   
+Le mizuna (Brassica rapa subsp. nipposinica) est une variété de Brassica rapa, espèce de plantes de la famille des brassicacées.   
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de mizuna, [水菜], vient de 水 (« eau ») et 菜 (« légume »)[réf. nécessaire].  
 </t>
@@ -543,9 +557,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les feuilles finement découpées et en rosette ressemblent à celles de la roquette[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles finement découpées et en rosette ressemblent à celles de la roquette.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mizuna se consomme cru, en salade de feuilles ou de jeunes pousses, ou cuit, en légume ou en soupe[2].
-La NASA a notamment choisi la salade Mizuna pour ses expériences visant à obtenir des aliments sains et cultivables en environnement spatial. Ceci dans le but de préparer ses futurs voyages et l'alimentation des astronautes. La première phase de ces expériences, Veg-04A, consiste en une mise en culture sur un cycle de croissance de 28 jours, à bord de l'ISS[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mizuna se consomme cru, en salade de feuilles ou de jeunes pousses, ou cuit, en légume ou en soupe.
+La NASA a notamment choisi la salade Mizuna pour ses expériences visant à obtenir des aliments sains et cultivables en environnement spatial. Ceci dans le but de préparer ses futurs voyages et l'alimentation des astronautes. La première phase de ces expériences, Veg-04A, consiste en une mise en culture sur un cycle de croissance de 28 jours, à bord de l'ISS.
 </t>
         </is>
       </c>
